--- a/Stochastics/Farthest_output.xlsx
+++ b/Stochastics/Farthest_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A394"/>
+  <dimension ref="A1:A395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(45, 269, 44.08025092400927)</t>
+          <t>(45, 231, 16.039683653913784)</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(89, 131, 5.400540054005404)</t>
+          <t>(89, 269, 7.1568319483207645)</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>(131, 92, 6.84173672426725)</t>
+          <t>(131, 269, 12.049856362450162)</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>(156, 383, 25.332861496617046)</t>
+          <t>(156, 269, 30.869504417488365)</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>(185, 197, 5.771192337735175)</t>
+          <t>(185, 269, 7.590225406944807)</t>
         </is>
       </c>
     </row>
@@ -758,14 +758,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>(197, 185, 5.771192337735175)</t>
+          <t>(197, 269, 7.112673021980014)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>(201, 269, 38.976879704362254)</t>
+          <t>(201, 126, 5.4750337806464655)</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>(269, 45, 44.08025092400927)</t>
+          <t>(269, 51, 33.63447742349403)</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>(311, 111, 22.04539231346219)</t>
+          <t>(311, 330, 21.807316072852018)</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>(330, 150, 4.025324891988822)</t>
+          <t>(330, 311, 21.807316072852018)</t>
         </is>
       </c>
     </row>
@@ -1129,14 +1129,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>(53, 55, 25.988888124676834)</t>
+          <t>(53, 116, 9.973459429099709)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>(55, 53, 25.988888124676834)</t>
+          <t>(55, 109, 11.651057809149473)</t>
         </is>
       </c>
     </row>
@@ -1164,2028 +1164,2035 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>(86, 23, 3.662332918011902)</t>
+          <t>(74, 176, 19.056039013741866)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>(97, 331, 5.433774460328472)</t>
+          <t>(86, 23, 3.662332918011902)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>(98, 221, 7.852536650646501)</t>
+          <t>(97, 331, 5.433774460328472)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>(100, 232, 2.8463345276043053)</t>
+          <t>(98, 221, 7.852536650646501)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>(103, 55, 8.829246306367935)</t>
+          <t>(100, 232, 2.8463345276043053)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>(106, 253, 5.433774460328485)</t>
+          <t>(103, 55, 8.829246306367935)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>(109, 259, 18.31166459005956)</t>
+          <t>(106, 253, 5.433774460328485)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>(112, 127, 8.824147116623308)</t>
+          <t>(109, 259, 18.31166459005956)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>(113, 359, 3.6252763197103453)</t>
+          <t>(112, 127, 8.824147116623308)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>(137, 176, 6.307769589447531)</t>
+          <t>(113, 359, 3.6252763197103453)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>(146, 350, 5.5808806593874225)</t>
+          <t>(137, 176, 6.307769589447531)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>(161, 215, 3.42086836213363)</t>
+          <t>(146, 350, 5.5808806593874225)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>(176, 344, 15.183415456201612)</t>
+          <t>(161, 215, 3.42086836213363)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>(188, 386, 2.3433092336953796)</t>
+          <t>(176, 74, 19.056039013741866)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>(190, 259, 10.44948980934173)</t>
+          <t>(188, 386, 2.3433092336953796)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>(193, 319, 2.4189192164112066)</t>
+          <t>(190, 259, 10.44948980934173)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>(200, 392, 2.4189192164112066)</t>
+          <t>(193, 319, 2.4189192164112066)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>(203, 98, 3.6623329180119137)</t>
+          <t>(200, 392, 2.4189192164112066)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>(206, 239, 2.766139951182984)</t>
+          <t>(203, 98, 3.6623329180119137)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>(212, 62, 3.7111661796738664)</t>
+          <t>(206, 239, 2.766139951182984)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>(214, 97, 3.6003600360036074)</t>
+          <t>(212, 62, 3.7111661796738664)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>(215, 239, 5.109326842462177)</t>
+          <t>(214, 97, 3.6003600360036074)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>(217, 109, 5.408867799975985)</t>
+          <t>(215, 239, 5.109326842462177)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>(220, 265, 4.460266650860629)</t>
+          <t>(217, 109, 5.408867799975985)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>(221, 92, 11.948579508994827)</t>
+          <t>(220, 265, 4.460266650860629)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>(230, 221, 5.978055459097282)</t>
+          <t>(221, 92, 11.948579508994827)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>(232, 109, 7.112673021980021)</t>
+          <t>(230, 74, 7.1568319483207725)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>(233, 5, 2.7168872301642364)</t>
+          <t>(232, 109, 7.112673021980021)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>(235, 157, 4.579759232665387)</t>
+          <t>(233, 5, 2.7168872301642364)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>(236, 344, 10.908886266245332)</t>
+          <t>(235, 157, 4.579759232665387)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>(239, 215, 5.109326842462177)</t>
+          <t>(236, 344, 10.908886266245332)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>(244, 53, 22.484724498234883)</t>
+          <t>(239, 215, 5.109326842462177)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>(253, 55, 7.25055263942069)</t>
+          <t>(244, 55, 4.002899509188827)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>(259, 226, 23.81603315027438)</t>
+          <t>(253, 55, 7.25055263942069)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>(260, 248, 4.295775896572561)</t>
+          <t>(259, 226, 23.81603315027438)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>(265, 53, 20.30066372112829)</t>
+          <t>(260, 248, 4.295775896572561)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>(274, 316, 4.178934376592895)</t>
+          <t>(265, 331, 6.075144533848362)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>(290, 296, 2.5809556756803516)</t>
+          <t>(274, 316, 4.178934376592895)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>(302, 32, 3.3944519948949177)</t>
+          <t>(290, 296, 2.5809556756803516)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>(305, 236, 5.515984491704242)</t>
+          <t>(302, 32, 3.3944519948949177)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>(307, 232, 4.200420042004197)</t>
+          <t>(305, 236, 5.515984491704242)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>(313, 97, 4.460266650860644)</t>
+          <t>(307, 232, 4.200420042004197)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>(316, 55, 8.783247025685238)</t>
+          <t>(313, 97, 4.460266650860644)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>(317, 248, 3.8422587683365452)</t>
+          <t>(316, 55, 8.783247025685238)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>(319, 1, 3.088997942090308)</t>
+          <t>(317, 248, 3.8422587683365452)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>(320, 350, 5.909905671644837)</t>
+          <t>(319, 1, 3.088997942090308)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>(331, 53, 20.66710550194858)</t>
+          <t>(320, 350, 5.909905671644837)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>(334, 316, 5.34188233266272)</t>
+          <t>(331, 127, 8.320086782995533)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>(344, 176, 15.183415456201612)</t>
+          <t>(334, 316, 5.34188233266272)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>(350, 236, 7.852536650646501)</t>
+          <t>(344, 176, 15.183415456201612)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>(355, 319, 2.5809556756803556)</t>
+          <t>(350, 236, 7.852536650646501)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>(359, 176, 7.921019371403587)</t>
+          <t>(355, 319, 2.5809556756803556)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>(368, 242, 4.569920855603907)</t>
+          <t>(359, 53, 9.110246895102891)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>(370, 346, 2.2849604278019475)</t>
+          <t>(368, 242, 4.569920855603907)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>(374, 167, 2.2849604278019475)</t>
+          <t>(370, 346, 2.2849604278019475)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>(376, 232, 3.7593651623587285)</t>
+          <t>(374, 167, 2.2849604278019475)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>(377, 236, 4.211121766462103)</t>
+          <t>(376, 232, 3.7593651623587285)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>(380, 320, 5.475033780646466)</t>
+          <t>(377, 236, 4.211121766462103)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>(382, 40, 4.243064993618639)</t>
+          <t>(380, 320, 5.475033780646466)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>(386, 221, 6.907209380870874)</t>
+          <t>(382, 40, 4.243064993618639)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>(392, 65, 3.6623329180119106)</t>
+          <t>(386, 221, 6.907209380870874)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>(0, 192, 2.4741107864492413)</t>
+          <t>(392, 65, 3.6623329180119106)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>(1, 319, 3.088997942090308)</t>
+          <t>(0, 192, 2.4741107864492413)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>(2, 167, 1.500150015001509)</t>
+          <t>(1, 319, 3.088997942090308)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>(3, 357, 6.037987337983231)</t>
+          <t>(2, 167, 1.500150015001509)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>(7, 13, 3.75936516235874)</t>
+          <t>(3, 357, 6.037987337983231)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>(9, 231, 5.2397987388457805)</t>
+          <t>(7, 13, 3.75936516235874)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>(11, 68, 4.837838432822409)</t>
+          <t>(9, 231, 5.2397987388457805)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>(12, 255, 2.545838996171188)</t>
+          <t>(11, 68, 4.837838432822409)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>(13, 7, 3.75936516235874)</t>
+          <t>(12, 255, 2.545838996171188)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>(16, 199, 2.8463345276043017)</t>
+          <t>(13, 7, 3.75936516235874)</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>(18, 42, 4.295775896572567)</t>
+          <t>(16, 199, 2.8463345276043017)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>(19, 382, 3.662332918011904)</t>
+          <t>(18, 42, 4.295775896572567)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>(21, 369, 3.662332918011911)</t>
+          <t>(19, 382, 3.662332918011904)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>(22, 67, 5.161911351360714)</t>
+          <t>(21, 369, 3.662332918011911)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>(24, 198, 3.9119126343850295)</t>
+          <t>(22, 67, 5.161911351360714)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>(25, 175, 3.189362680088412)</t>
+          <t>(24, 198, 3.9119126343850295)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>(26, 194, 3.0003000300030025)</t>
+          <t>(25, 175, 3.189362680088412)</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>(27, 207, 3.000300030003004)</t>
+          <t>(26, 194, 3.0003000300030025)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>(28, 379, 1.8250112602154978)</t>
+          <t>(27, 207, 3.000300030003004)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>(29, 251, 5.917516628657672)</t>
+          <t>(28, 379, 1.8250112602154978)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>(30, 291, 3.4208683621336258)</t>
+          <t>(29, 251, 5.917516628657672)</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>(31, 53, 21.09836372776307)</t>
+          <t>(30, 291, 3.4208683621336258)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>(33, 369, 5.179320882577879)</t>
+          <t>(31, 328, 11.546283471283441)</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>(34, 223, 7.023522298661638)</t>
+          <t>(33, 369, 5.179320882577879)</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>(36, 63, 2.1842513919233504)</t>
+          <t>(34, 223, 7.023522298661638)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>(37, 226, 7.875430392083219)</t>
+          <t>(36, 63, 2.1842513919233504)</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>(39, 297, 2.5634574693421954)</t>
+          <t>(37, 226, 7.875430392083219)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>(40, 190, 4.993494442572227)</t>
+          <t>(39, 297, 2.5634574693421954)</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>(42, 177, 4.68661846739074)</t>
+          <t>(40, 190, 4.993494442572227)</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>(43, 379, 2.474110786449256)</t>
+          <t>(42, 177, 4.68661846739074)</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>(46, 262, 2.5634574693421928)</t>
+          <t>(43, 379, 2.474110786449256)</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>(47, 110, 4.589576519885501)</t>
+          <t>(46, 262, 2.5634574693421928)</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>(48, 375, 3.8187584942567834)</t>
+          <t>(47, 110, 4.589576519885501)</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>(49, 79, 3.015264212757546)</t>
+          <t>(48, 375, 3.8187584942567834)</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>(56, 326, 2.9549528358224184)</t>
+          <t>(49, 79, 3.015264212757546)</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>(57, 213, 13.326872075915274)</t>
+          <t>(56, 326, 2.9549528358224184)</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>(58, 115, 6.307769589447541)</t>
+          <t>(57, 226, 24.237951971822508)</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>(59, 71, 3.7111661796738664)</t>
+          <t>(58, 115, 6.307769589447541)</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>(63, 90, 3.0597176799236587)</t>
+          <t>(59, 71, 3.7111661796738664)</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>(64, 352, 2.1215324968093223)</t>
+          <t>(63, 90, 3.0597176799236587)</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>(66, 3, 2.8304773873557165)</t>
+          <t>(64, 352, 2.1215324968093223)</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>(67, 115, 6.264810386384975)</t>
+          <t>(66, 3, 2.8304773873557165)</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>(68, 11, 4.837838432822409)</t>
+          <t>(67, 115, 6.264810386384975)</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>(69, 87, 4.211121766462107)</t>
+          <t>(68, 11, 4.837838432822409)</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>(70, 112, 4.809846847249144)</t>
+          <t>(69, 87, 4.211121766462107)</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>(71, 167, 3.9119126343850357)</t>
+          <t>(70, 112, 4.809846847249144)</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>(72, 372, 4.5004500450045)</t>
+          <t>(71, 167, 3.9119126343850357)</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>(73, 364, 3.000300030002998)</t>
+          <t>(72, 372, 4.5004500450045)</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>(75, 291, 4.264227543819949)</t>
+          <t>(73, 364, 3.000300030002998)</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>(76, 118, 7.500750075007502)</t>
+          <t>(75, 291, 4.264227543819949)</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>(79, 169, 4.080849237544384)</t>
+          <t>(76, 118, 7.500750075007502)</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>(81, 18, 3.498921029010086)</t>
+          <t>(79, 169, 4.080849237544384)</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>(82, 124, 2.7661399511829927)</t>
+          <t>(81, 18, 3.498921029010086)</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>(83, 11, 4.7438908793404995)</t>
+          <t>(82, 124, 2.7661399511829927)</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>(84, 363, 1.237055393224621)</t>
+          <t>(83, 11, 4.7438908793404995)</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>(85, 127, 3.900390039003904)</t>
+          <t>(84, 363, 1.237055393224621)</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>(87, 222, 4.686618467390729)</t>
+          <t>(85, 127, 3.900390039003904)</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>(88, 277, 1.697225997447464)</t>
+          <t>(87, 222, 4.686618467390729)</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>(90, 63, 3.0597176799236587)</t>
+          <t>(88, 277, 1.697225997447464)</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>(91, 199, 2.1215324968093214)</t>
+          <t>(90, 63, 3.0597176799236587)</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>(93, 384, 3.245320679985584)</t>
+          <t>(91, 199, 2.1215324968093214)</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>(94, 151, 9.300930093009299)</t>
+          <t>(93, 384, 3.245320679985584)</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>(95, 173, 1.9211293841682782)</t>
+          <t>(94, 151, 9.300930093009299)</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>(96, 315, 4.8004800480048)</t>
+          <t>(95, 173, 1.9211293841682782)</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>(105, 180, 3.511761149330819)</t>
+          <t>(96, 315, 4.8004800480048)</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>(107, 219, 17.903302200729787)</t>
+          <t>(105, 180, 3.511761149330819)</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>(108, 93, 1.8975563517362)</t>
+          <t>(107, 140, 9.605646920841357)</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>(110, 140, 6.185276966123104)</t>
+          <t>(108, 93, 1.8975563517362)</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>(111, 311, 22.04539231346219)</t>
+          <t>(110, 140, 6.185276966123104)</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>(114, 357, 4.036490863208437)</t>
+          <t>(111, 219, 8.950755409646746)</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>(115, 58, 6.307769589447541)</t>
+          <t>(114, 357, 4.036490863208437)</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>(116, 140, 6.462844052966695)</t>
+          <t>(115, 58, 6.307769589447541)</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>(118, 289, 7.7892319146397675)</t>
+          <t>(116, 53, 9.973459429099709)</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>(120, 27, 2.830477387355718)</t>
+          <t>(118, 289, 7.7892319146397675)</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>(121, 229, 3.8422587683365452)</t>
+          <t>(120, 27, 2.830477387355718)</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>(122, 191, 4.036490863208432)</t>
+          <t>(121, 229, 3.8422587683365452)</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>(123, 90, 2.71688723016424)</t>
+          <t>(122, 191, 4.036490863208432)</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>(124, 148, 3.354437409990689)</t>
+          <t>(123, 90, 2.71688723016424)</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>(127, 112, 8.824147116623308)</t>
+          <t>(124, 148, 3.354437409990689)</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>(130, 226, 10.24065296482209)</t>
+          <t>(127, 112, 8.824147116623308)</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>(132, 57, 10.70901187973282)</t>
+          <t>(130, 57, 20.164541742441088)</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>(133, 304, 2.474110786449242)</t>
+          <t>(132, 228, 10.654233966135434)</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>(135, 228, 5.161911351360713)</t>
+          <t>(133, 304, 2.474110786449242)</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>(136, 337, 1.8001800180017966)</t>
+          <t>(135, 228, 5.161911351360713)</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>(138, 141, 2.0126624459944127)</t>
+          <t>(136, 337, 1.8001800180017966)</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>(139, 163, 3.3944519948949177)</t>
+          <t>(138, 141, 2.0126624459944127)</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>(140, 107, 9.605646920841357)</t>
+          <t>(139, 163, 3.3944519948949177)</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>(141, 93, 2.4741107864492413)</t>
+          <t>(140, 107, 9.605646920841357)</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>(142, 226, 18.33131757622578)</t>
+          <t>(141, 93, 2.4741107864492413)</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>(143, 111, 21.538753589566404)</t>
+          <t>(142, 226, 18.33131757622578)</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>(145, 67, 4.002899509188822)</t>
+          <t>(143, 107, 5.771192337735168)</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>(147, 276, 1.8975563517361966)</t>
+          <t>(145, 67, 4.002899509188822)</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>(148, 124, 3.354437409990689)</t>
+          <t>(147, 276, 1.8975563517361966)</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>(150, 330, 4.025324891988822)</t>
+          <t>(148, 124, 3.354437409990689)</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>(151, 328, 11.01563741415291)</t>
+          <t>(150, 330, 4.025324891988822)</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>(154, 319, 2.1842513919233504)</t>
+          <t>(151, 328, 11.01563741415291)</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>(157, 232, 4.743890879340502)</t>
+          <t>(154, 319, 2.1842513919233504)</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>(158, 140, 3.511761149330826)</t>
+          <t>(157, 232, 4.743890879340502)</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>(160, 310, 2.4189192164112043)</t>
+          <t>(158, 140, 3.511761149330826)</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>(162, 267, 3.0003000300029967)</t>
+          <t>(160, 310, 2.4189192164112043)</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>(163, 139, 3.3944519948949177)</t>
+          <t>(162, 267, 3.0003000300029967)</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>(165, 183, 4.080849237544382)</t>
+          <t>(163, 139, 3.3944519948949177)</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>(166, 91, 2.1215324968093183)</t>
+          <t>(165, 183, 4.080849237544382)</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>(167, 296, 4.025324891988818)</t>
+          <t>(166, 91, 2.1215324968093183)</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>(169, 79, 4.080849237544384)</t>
+          <t>(167, 296, 4.025324891988818)</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>(170, 347, 4.429889907060727)</t>
+          <t>(169, 79, 4.080849237544384)</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>(171, 297, 3.625276319710342)</t>
+          <t>(170, 347, 4.429889907060727)</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>(172, 343, 1.8975563517362057)</t>
+          <t>(171, 297, 3.625276319710342)</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>(173, 158, 3.2453206799855883)</t>
+          <t>(172, 343, 1.8975563517362057)</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>(175, 76, 3.7951127034724044)</t>
+          <t>(173, 158, 3.2453206799855883)</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>(177, 315, 4.884134592289144)</t>
+          <t>(175, 76, 3.7951127034724044)</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>(178, 388, 2.5809556756803516)</t>
+          <t>(177, 315, 4.884134592289144)</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>(180, 105, 3.511761149330819)</t>
+          <t>(178, 388, 2.5809556756803516)</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>(181, 250, 1.3417749639962815)</t>
+          <t>(180, 111, 4.025324891988822)</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>(183, 342, 7.452590668091341)</t>
+          <t>(181, 250, 1.3417749639962815)</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>(184, 229, 3.6003600360036074)</t>
+          <t>(183, 342, 7.452590668091341)</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>(186, 213, 4.993494442572231)</t>
+          <t>(184, 229, 3.6003600360036074)</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>(187, 91, 2.012662445994408)</t>
+          <t>(186, 72, 3.9119126343850295)</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>(189, 228, 4.809846847249144)</t>
+          <t>(187, 91, 2.012662445994408)</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>(192, 96, 3.0889979420903098)</t>
+          <t>(189, 228, 4.809846847249144)</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>(194, 209, 3.662332918011908)</t>
+          <t>(192, 96, 3.0889979420903098)</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>(195, 15, 2.3433092336953627)</t>
+          <t>(194, 209, 3.662332918011908)</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>(196, 151, 6.580171677006088)</t>
+          <t>(195, 15, 2.3433092336953627)</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>(198, 228, 7.422332359347722)</t>
+          <t>(196, 151, 6.580171677006088)</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>(199, 13, 3.3544374099906826)</t>
+          <t>(198, 228, 7.422332359347722)</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>(202, 34, 3.231422026483354)</t>
+          <t>(199, 13, 3.3544374099906826)</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>(204, 342, 7.892557118491396)</t>
+          <t>(202, 34, 3.231422026483354)</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>(205, 13, 3.6500225204309733)</t>
+          <t>(204, 342, 7.892557118491396)</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>(207, 27, 3.000300030003004)</t>
+          <t>(205, 13, 3.6500225204309733)</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>(208, 10, 3.2314220264833446)</t>
+          <t>(207, 27, 3.000300030003004)</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>(209, 314, 5.692669055208608)</t>
+          <t>(208, 10, 3.2314220264833446)</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>(211, 94, 4.002899509188813)</t>
+          <t>(209, 314, 5.692669055208608)</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>(213, 57, 13.326872075915274)</t>
+          <t>(211, 94, 4.002899509188813)</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>(218, 194, 2.683549927992547)</t>
+          <t>(213, 226, 36.020862198560444)</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>(219, 143, 18.652125994958553)</t>
+          <t>(218, 194, 2.683549927992547)</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>(223, 130, 7.926699558129554)</t>
+          <t>(219, 111, 8.950755409646746)</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>(225, 0, 1.7494605145050413)</t>
+          <t>(223, 57, 16.338972297348647)</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>(226, 259, 23.81603315027438)</t>
+          <t>(225, 0, 1.7494605145050413)</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>(228, 57, 12.09459608205603)</t>
+          <t>(226, 213, 36.020862198560444)</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>(229, 289, 5.515984491704243)</t>
+          <t>(228, 132, 10.654233966135434)</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>(234, 264, 9.941819097378275)</t>
+          <t>(229, 289, 5.515984491704243)</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>(237, 276, 1.6972259974474588)</t>
+          <t>(234, 264, 9.941819097378275)</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>(238, 121, 1.6157110132416703)</t>
+          <t>(237, 276, 1.6972259974474588)</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>(240, 96, 3.420868362133632)</t>
+          <t>(238, 121, 1.6157110132416703)</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>(241, 304, 1.9211293841682773)</t>
+          <t>(240, 96, 3.420868362133632)</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>(242, 368, 4.569920855603907)</t>
+          <t>(241, 304, 1.9211293841682773)</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>(243, 291, 2.418919216411206)</t>
+          <t>(242, 368, 4.569920855603907)</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>(246, 141, 1.8001800180018002)</t>
+          <t>(243, 291, 2.418919216411206)</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>(247, 82, 1.8975563517361989)</t>
+          <t>(246, 141, 1.8001800180018002)</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>(248, 359, 4.3270942399807915)</t>
+          <t>(247, 82, 1.8975563517361989)</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>(249, 30, 2.4189192164112066)</t>
+          <t>(248, 359, 4.3270942399807915)</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>(250, 304, 2.8463345276043053)</t>
+          <t>(249, 30, 2.4189192164112066)</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>(251, 29, 5.917516628657672)</t>
+          <t>(250, 304, 2.8463345276043053)</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>(252, 273, 3.662332918011915)</t>
+          <t>(251, 29, 5.917516628657672)</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>(254, 170, 4.002899509188822)</t>
+          <t>(252, 273, 3.662332918011915)</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>(255, 12, 2.545838996171188)</t>
+          <t>(254, 170, 4.002899509188822)</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>(256, 175, 1.5001500150014935)</t>
+          <t>(255, 12, 2.545838996171188)</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>(258, 105, 3.13240519319248)</t>
+          <t>(256, 175, 1.5001500150014935)</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>(262, 25, 3.05971767992366)</t>
+          <t>(258, 105, 3.13240519319248)</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>(264, 234, 9.941819097378275)</t>
+          <t>(262, 25, 3.05971767992366)</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>(267, 189, 3.759365162358733)</t>
+          <t>(264, 234, 9.941819097378275)</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>(268, 199, 2.8463345908498607)</t>
+          <t>(267, 189, 3.759365162358733)</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>(270, 93, 2.012662445994409)</t>
+          <t>(268, 199, 2.8463345908498607)</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>(271, 34, 3.511761149330826)</t>
+          <t>(270, 93, 2.012662445994409)</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>(272, 116, 4.948221572898483)</t>
+          <t>(271, 34, 3.511761149330826)</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>(273, 357, 4.368502783846699)</t>
+          <t>(272, 116, 4.948221572898483)</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>(277, 79, 4.036490863208435)</t>
+          <t>(273, 357, 4.368502783846699)</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>(280, 382, 3.498921029010072)</t>
+          <t>(277, 79, 4.036490863208435)</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>(282, 267, 3.1893626800884047)</t>
+          <t>(280, 382, 3.498921029010072)</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>(283, 295, 2.418919104779952)</t>
+          <t>(282, 267, 3.1893626800884047)</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>(285, 27, 2.9549528358224153)</t>
+          <t>(283, 295, 2.418919104779952)</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>(286, 82, 1.8975563517361966)</t>
+          <t>(285, 27, 2.9549528358224153)</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>(288, 198, 5.692669055208608)</t>
+          <t>(286, 82, 1.8975563517361966)</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>(289, 118, 7.7892319146397675)</t>
+          <t>(288, 219, 6.420922459955802)</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>(291, 369, 4.29577589657256)</t>
+          <t>(289, 118, 7.7892319146397675)</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>(292, 127, 6.329139846903395)</t>
+          <t>(291, 369, 4.29577589657256)</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>(294, 297, 2.5809556524308275)</t>
+          <t>(292, 127, 6.329139846903395)</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>(295, 388, 2.580955652430823)</t>
+          <t>(294, 297, 2.5809556524308275)</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>(296, 167, 4.025324891988818)</t>
+          <t>(295, 388, 2.580955652430823)</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>(297, 171, 3.625276319710342)</t>
+          <t>(296, 167, 4.025324891988818)</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>(298, 130, 2.716887230164243)</t>
+          <t>(297, 171, 3.625276319710342)</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>(299, 158, 2.1215324968093223)</t>
+          <t>(298, 130, 2.716887230164243)</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>(301, 7, 3.420868362133627)</t>
+          <t>(299, 158, 2.1215324968093223)</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>(304, 250, 2.8463345276043053)</t>
+          <t>(301, 7, 3.420868362133627)</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>(309, 66, 2.418919216411206)</t>
+          <t>(304, 250, 2.8463345276043053)</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>(310, 163, 3.313939699126093)</t>
+          <t>(309, 66, 2.418919216411206)</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>(314, 152, 6.119435359847325)</t>
+          <t>(310, 163, 3.313939699126093)</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>(315, 177, 4.884134592289144)</t>
+          <t>(314, 152, 6.119435359847325)</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>(318, 87, 3.711166179673863)</t>
+          <t>(315, 177, 4.884134592289144)</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>(322, 277, 2.7661399511829803)</t>
+          <t>(318, 87, 3.711166179673863)</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>(324, 228, 3.0889979420903035)</t>
+          <t>(322, 277, 2.7661399511829803)</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>(325, 262, 2.1635471199903895)</t>
+          <t>(324, 228, 3.0889979420903035)</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>(326, 71, 3.088997942090308)</t>
+          <t>(325, 262, 2.1635471199903895)</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>(327, 171, 2.580955675680358)</t>
+          <t>(326, 71, 3.088997942090308)</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>(328, 31, 11.546283471283441)</t>
+          <t>(327, 171, 2.580955675680358)</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>(333, 342, 7.875430392083221)</t>
+          <t>(328, 31, 11.546283471283441)</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>(335, 347, 4.5699208556039)</t>
+          <t>(333, 342, 7.875430392083221)</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>(336, 183, 6.441917357810946)</t>
+          <t>(335, 347, 4.5699208556039)</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>(337, 310, 2.5634574693421954)</t>
+          <t>(336, 183, 6.441917357810946)</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>(340, 226, 11.674213296335855)</t>
+          <t>(337, 310, 2.5634574693421954)</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>(342, 234, 7.892557118491396)</t>
+          <t>(340, 226, 11.674213296335855)</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>(343, 178, 2.4741107864492404)</t>
+          <t>(342, 234, 7.892557118491396)</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>(345, 228, 4.88413459228914)</t>
+          <t>(343, 178, 2.4741107864492404)</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>(346, 307, 2.683549927992547)</t>
+          <t>(345, 228, 4.88413459228914)</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>(347, 11, 4.7438908793404995)</t>
+          <t>(346, 307, 2.683549927992547)</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>(349, 361, 2.012662445994409)</t>
+          <t>(347, 11, 4.7438908793404995)</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>(351, 375, 4.080849237544387)</t>
+          <t>(349, 361, 2.012662445994409)</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>(352, 127, 4.429889907060733)</t>
+          <t>(351, 375, 4.080849237544387)</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>(357, 132, 7.892557118491393)</t>
+          <t>(352, 127, 4.429889907060733)</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>(358, 262, 2.683549927992544)</t>
+          <t>(357, 132, 7.892557118491393)</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>(360, 390, 1.9211293841682726)</t>
+          <t>(358, 262, 2.683549927992544)</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>(361, 349, 2.012662445994409)</t>
+          <t>(360, 390, 1.9211293841682726)</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>(363, 297, 1.8001800180018037)</t>
+          <t>(361, 349, 2.012662445994409)</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>(364, 277, 3.5117611493308125)</t>
+          <t>(363, 297, 1.8001800180018037)</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>(366, 183, 5.408867799975979)</t>
+          <t>(364, 277, 3.5117611493308125)</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>(367, 121, 3.3003300330033056)</t>
+          <t>(366, 183, 5.408867799975979)</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>(369, 33, 5.179320882577879)</t>
+          <t>(367, 121, 3.3003300330033056)</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>(371, 11, 4.589576519885494)</t>
+          <t>(369, 33, 5.179320882577879)</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>(372, 132, 4.884134592289141)</t>
+          <t>(371, 11, 4.589576519885494)</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>(373, 382, 2.4189192164112057)</t>
+          <t>(372, 132, 4.884134592289141)</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>(375, 213, 5.637051973614144)</t>
+          <t>(373, 382, 2.4189192164112057)</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>(379, 118, 5.308072611147358)</t>
+          <t>(375, 342, 5.367099855985094)</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>(381, 141, 2.4189192164112043)</t>
+          <t>(379, 118, 5.308072611147358)</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>(384, 291, 3.3544374099906817)</t>
+          <t>(381, 141, 2.4189192164112043)</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>(385, 262, 2.7661399511829807)</t>
+          <t>(384, 291, 3.3544374099906817)</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>(388, 178, 2.5809556756803516)</t>
+          <t>(385, 262, 2.7661399511829807)</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>(389, 332, 3.2453206799855963)</t>
+          <t>(388, 178, 2.5809556756803516)</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>(390, 90, 2.9701454955330506)</t>
+          <t>(389, 332, 3.2453206799855963)</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
+        <is>
+          <t>(390, 90, 2.9701454955330506)</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
         <is>
           <t>(391, 343, 1.5001500150014955)</t>
         </is>
